--- a/reports/student3/z-test.xlsx
+++ b/reports/student3/z-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegef\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegef\Documents\UNI\TERCERO\DP2\Workspace-25\Projects\Acme-ANS-C2\reports\student3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C72CE49-F8BA-4547-8877-C7EE1E1818EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A013B-C5B5-44EE-A284-F6FD3BDA8BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED1E787B-E064-4465-A487-7B1C7A0CA39B}"/>
   </bookViews>
@@ -181,14 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -543,100 +542,95 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>6.8660914634146337</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>7.1563711382113819</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>81.165494199999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>86.592751500000006</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>492</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>-0.497115427527558</v>
       </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0.30955382798102704</v>
       </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1.6448536269514715</v>
       </c>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>0.61910765596205408</v>
       </c>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1.9599639845400536</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,14 +683,14 @@
       <c r="B4">
         <v>1.8665</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -705,10 +699,6 @@
       <c r="B5">
         <v>1.8613</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -717,16 +707,16 @@
       <c r="B6">
         <v>4.1687000000000003</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>6.8660914634146337</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>7.1563711382113819</v>
       </c>
     </row>
@@ -737,16 +727,16 @@
       <c r="B7">
         <v>1.3362000000000001</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>0.40616562721191213</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0.41952535965080456</v>
       </c>
     </row>
@@ -757,16 +747,16 @@
       <c r="B8">
         <v>2.5506000000000002</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>2.1288999999999998</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>2.4529000000000001</v>
       </c>
     </row>
@@ -777,16 +767,16 @@
       <c r="B9">
         <v>1.4655</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1.9791000000000001</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>0.90500000000000003</v>
       </c>
     </row>
@@ -797,16 +787,16 @@
       <c r="B10">
         <v>2.5449000000000002</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>9.0091894324847797</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>9.3055226331435765</v>
       </c>
     </row>
@@ -817,16 +807,16 @@
       <c r="B11">
         <v>1.3088</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>81.165494230395424</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>86.592751475947367</v>
       </c>
     </row>
@@ -837,16 +827,16 @@
       <c r="B12">
         <v>2.2323</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>6.0894823302498731</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>7.4271246850931183</v>
       </c>
     </row>
@@ -857,16 +847,16 @@
       <c r="B13">
         <v>1.4168000000000001</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>2.1756464197214891</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>2.3086273965016679</v>
       </c>
     </row>
@@ -877,16 +867,16 @@
       <c r="B14">
         <v>3.0697000000000001</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>58.865599999999993</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>66.723000000000013</v>
       </c>
     </row>
@@ -897,16 +887,16 @@
       <c r="B15">
         <v>1.1617</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>0.59150000000000003</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>0.62649999999999995</v>
       </c>
     </row>
@@ -917,16 +907,16 @@
       <c r="B16">
         <v>2.1648000000000001</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>59.457099999999997</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>67.349500000000006</v>
       </c>
     </row>
@@ -937,16 +927,16 @@
       <c r="B17">
         <v>1.3382000000000001</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>3378.1169999999997</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>3520.9346</v>
       </c>
     </row>
@@ -957,16 +947,16 @@
       <c r="B18">
         <v>1.6937</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>492</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>492</v>
       </c>
     </row>
@@ -977,16 +967,16 @@
       <c r="B19">
         <v>1.4024000000000001</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.79803715827155375</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.82428645707112813</v>
       </c>
     </row>
